--- a/IBK/excel/RA_BL_result_0702.xlsx
+++ b/IBK/excel/RA_BL_result_0702.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="648">
   <si>
     <t>file name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,10 +341,6 @@
     <t>BL_017852194000484_304023_20190226_3019022614060503.1</t>
   </si>
   <si>
-    <t>Gdansk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TO ORDER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2207,9 +2203,6 @@
     <t>PT  GREAT GIANT PINEAPPLE  DESA TERBANGGI BESAR KM  77 KECAMATAN TERBANGGI BERSAR KABUPATEN LAMPUNG TENGAH PROPINSI LAMPUNG INDONESIA</t>
   </si>
   <si>
-    <t xml:space="preserve">Korea Marine Transport Co  Ltd </t>
-  </si>
-  <si>
     <t>FEB 18 2019</t>
   </si>
   <si>
@@ -2279,9 +2272,6 @@
     <t>CLARITAS SARL 119  BD ABDELMOUMEN  QUARTIER DES HOPITAUX 20340 CASABLANCA  MOROCCO</t>
   </si>
   <si>
-    <t xml:space="preserve">LeoLogisticsCo  Ltd </t>
-  </si>
-  <si>
     <t>ITOCHU CORPORATION TOKSE 501  KITA-AOYAMA 2-CHOME  MINATO-KU  TOKYO 107-8077  JAPAN</t>
   </si>
   <si>
@@ -2366,9 +2356,6 @@
     <t xml:space="preserve">BEDAYA COMPANY FOR STATIONERY MANUFACTURING  NO 111  ST  14  THE THIRD INDUSTIRIAL ZONE  6 OCTOBER  GIZA  EGYPT </t>
   </si>
   <si>
-    <t xml:space="preserve">MH Global Korea CO   LTD </t>
-  </si>
-  <si>
     <t>VOX INC  2235-1 KOSAKAHIGASHI KAMOGATA CHO ASAKUCHI-SHI OKAYAMA JAPAN</t>
   </si>
   <si>
@@ -2405,9 +2392,6 @@
     <t>TO THE ORDER OF FIRST ABU DHABI BANK  UAE</t>
   </si>
   <si>
-    <t xml:space="preserve">CENTRAL Express Intl Co   Ltd </t>
-  </si>
-  <si>
     <t>TO THE ORDER OF TURKIYE HALK BANKASI A S  HADIMKOY COMMERCIAL BRANCH ISTANBUL TURKEY</t>
   </si>
   <si>
@@ -2416,6 +2400,29 @@
   </si>
   <si>
     <t>03-FEB-19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRAL EXPRESS INTL Co   LTD </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">LEOLOGISTICS CO  Ltd </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MH GLOBAL KOREA CO   LTD </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">KOREA MARINE TRANSPORT Co  Ltd </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOREA MARINE TRANSPORT Co  Ltd </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GDANSK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2820,7 +2827,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2831,8 +2838,8 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O39" sqref="O39"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2876,100 +2883,100 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>475</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>569</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>522</v>
-      </c>
       <c r="G5" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
@@ -2978,21 +2985,21 @@
         <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
@@ -3001,21 +3008,21 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>30</v>
@@ -3024,125 +3031,125 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>573</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>573</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>528</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="G12" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>36</v>
@@ -3151,41 +3158,41 @@
         <v>35</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>584</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
@@ -3194,173 +3201,173 @@
         <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>577</v>
+        <v>646</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>593</v>
-      </c>
       <c r="H18" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G20" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>486</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>600</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>534</v>
-      </c>
       <c r="G21" s="11" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -3368,25 +3375,25 @@
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>569</v>
-      </c>
       <c r="H22" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -3397,22 +3404,22 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -3423,22 +3430,22 @@
         <v>45</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -3446,25 +3453,25 @@
         <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>526</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>527</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>48</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -3472,22 +3479,22 @@
         <v>49</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="G26" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -3495,25 +3502,25 @@
         <v>50</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E27" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>540</v>
-      </c>
       <c r="G27" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -3521,25 +3528,25 @@
         <v>52</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>604</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>607</v>
-      </c>
       <c r="H28" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -3547,25 +3554,25 @@
         <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="G29" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>607</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -3579,16 +3586,16 @@
         <v>56</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>538</v>
-      </c>
       <c r="G30" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -3596,10 +3603,10 @@
         <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>59</v>
@@ -3608,36 +3615,36 @@
         <v>58</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -3648,19 +3655,19 @@
         <v>63</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -3668,22 +3675,22 @@
         <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>65</v>
       </c>
       <c r="G34" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="H34" s="12" t="s">
         <v>498</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -3691,25 +3698,25 @@
         <v>66</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>67</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -3717,33 +3724,33 @@
         <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>70</v>
@@ -3756,25 +3763,25 @@
         <v>71</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="F38" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3782,10 +3789,10 @@
         <v>72</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>74</v>
@@ -3794,10 +3801,10 @@
         <v>73</v>
       </c>
       <c r="G39" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>498</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3805,22 +3812,22 @@
         <v>76</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>553</v>
-      </c>
       <c r="G40" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>503</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -3828,22 +3835,22 @@
         <v>77</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="G41" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>505</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -3851,71 +3858,71 @@
         <v>75</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>555</v>
-      </c>
       <c r="G42" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>557</v>
-      </c>
       <c r="G43" s="12" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H44" s="12"/>
     </row>
@@ -3927,22 +3934,22 @@
         <v>82</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -3950,22 +3957,22 @@
         <v>83</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="G46" s="12" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -3973,89 +3980,89 @@
         <v>84</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>85</v>
+        <v>647</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="G48" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>512</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="D49" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="G50" s="12" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -4121,482 +4128,482 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="F13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>23</v>
@@ -4607,13 +4614,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>23</v>
@@ -4624,33 +4631,33 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>27</v>
@@ -4658,16 +4665,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>27</v>
@@ -4675,16 +4682,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>27</v>
@@ -4692,405 +4699,405 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="H49" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="H52" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="H53" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -5171,768 +5178,768 @@
     </row>
     <row r="2" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="108" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>190</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="108" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>189</v>
-      </c>
       <c r="G5" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>192</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>196</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>199</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="I9" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="108" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>213</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="108" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>218</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>222</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>236</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>240</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="135" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>258</v>
-      </c>
       <c r="I20" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="J21" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>293</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>295</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="189" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="H25" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>319</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="H29" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="E30" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>326</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="E33" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>334</v>
-      </c>
       <c r="H33" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="81" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="81" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="I37" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>349</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="I38" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>354</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="I39" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>359</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>364</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="162" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -6013,140 +6020,140 @@
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>270</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>273</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>279</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>81</v>
@@ -6154,49 +6161,49 @@
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="G18" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>288</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/IBK/excel/RA_BL_result_0702.xlsx
+++ b/IBK/excel/RA_BL_result_0702.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="649">
   <si>
     <t>file name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2423,6 +2423,10 @@
   </si>
   <si>
     <t>GDANSK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SINOKOR MERCHANT MARINE CO  LTD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2827,7 +2831,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2837,15 +2841,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="140.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="21.25" style="1" bestFit="1" customWidth="1"/>
@@ -2887,6 +2891,9 @@
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>648</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>516</v>

--- a/IBK/excel/RA_BL_result_0702.xlsx
+++ b/IBK/excel/RA_BL_result_0702.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28800" windowHeight="8265"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="BL" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="657">
   <si>
     <t>file name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,10 +200,6 @@
     <t>BL_000152193000908_304023_20190225_3019022512494100.1</t>
   </si>
   <si>
-    <t>TO THE ORDER SHIPPER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MM KEMBLA GLOUCESTER BOULEVARDE P O BOX 21 PORT KEMBLA NSW 2505 AUSTRALIA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2428,13 +2424,44 @@
   <si>
     <t>SINOKOR MERCHANT MARINE CO  LTD</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYUNDAI MERCHANT MARINE CO LTD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRAL EXPRESS INTL Co   LTD </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CENTRAL EXPRESS INTL Co   LTD </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BRIDGE WORLD LOGISTICS CO  LTD</t>
+  </si>
+  <si>
+    <t>LEO LOGISTICS CO  LTD</t>
+  </si>
+  <si>
+    <t>METRO LOGISTICS CO LTD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEADERS TRANSPORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HYUNDAI GLOVIS CO  LTD</t>
+  </si>
+  <si>
+    <t>MING (RORSA) CO  LTD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2477,6 +2504,13 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2842,8 +2876,8 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2887,276 +2921,297 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G3" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>474</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>568</v>
-      </c>
       <c r="H4" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="G5" s="10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>650</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C7" s="10" t="s">
+        <v>649</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="C8" s="10" t="s">
+        <v>649</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C9" s="10" t="s">
+        <v>651</v>
+      </c>
       <c r="D9" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="C10" s="10" t="s">
+        <v>651</v>
+      </c>
       <c r="D10" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>572</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>652</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>528</v>
-      </c>
       <c r="G12" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>578</v>
-      </c>
       <c r="D13" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>36</v>
@@ -3165,41 +3220,41 @@
         <v>35</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>582</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>38</v>
@@ -3208,173 +3263,173 @@
         <v>39</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>591</v>
-      </c>
       <c r="H18" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>530</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>528</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>593</v>
-      </c>
       <c r="H19" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G20" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="H20" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>598</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>533</v>
-      </c>
       <c r="G21" s="11" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -3382,25 +3437,25 @@
         <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G22" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>568</v>
-      </c>
       <c r="H22" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -3411,22 +3466,22 @@
         <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -3434,642 +3489,658 @@
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E24" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="G25" s="12" t="s">
         <v>573</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>574</v>
-      </c>
       <c r="H25" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>653</v>
       </c>
       <c r="D26" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>537</v>
-      </c>
       <c r="G26" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E27" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>539</v>
-      </c>
       <c r="G27" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>603</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>539</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>604</v>
-      </c>
       <c r="H28" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>606</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D30" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E30" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>537</v>
-      </c>
       <c r="G30" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>611</v>
-      </c>
       <c r="H31" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>583</v>
-      </c>
-      <c r="H32" s="12" t="s">
+      <c r="F33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>656</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="H33" s="12" t="s">
+      <c r="E34" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="12" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>543</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G34" s="12" t="s">
+      <c r="H34" s="12" t="s">
         <v>497</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G35" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="D36" s="1" t="s">
+      <c r="G36" s="12" t="s">
         <v>616</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>617</v>
-      </c>
       <c r="H36" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="F38" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>621</v>
-      </c>
       <c r="H38" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="G39" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>497</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>552</v>
-      </c>
       <c r="G40" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>502</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>554</v>
-      </c>
       <c r="G41" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>504</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>626</v>
-      </c>
       <c r="E42" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>554</v>
-      </c>
       <c r="G42" s="12" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="G43" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>630</v>
-      </c>
       <c r="G44" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="E45" s="1" t="s">
+      <c r="B46" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C46" s="10"/>
+      <c r="D46" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="H45" s="12" t="s">
+      <c r="F46" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>508</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="D47" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>560</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="G48" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="H48" s="12" t="s">
         <v>511</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D49" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="G49" s="12"/>
       <c r="H49" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="G50" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>637</v>
-      </c>
       <c r="H50" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -4135,482 +4206,482 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>23</v>
@@ -4621,13 +4692,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>23</v>
@@ -4638,33 +4709,33 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>27</v>
@@ -4672,16 +4743,16 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>27</v>
@@ -4689,16 +4760,16 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>27</v>
@@ -4706,405 +4777,405 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G49" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="H49" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="H52" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="H53" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="E57" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="F57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5185,768 +5256,768 @@
     </row>
     <row r="2" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>184</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="108" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="108" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="G5" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>195</v>
-      </c>
       <c r="E6" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F7" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E8" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>202</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="I9" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="108" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>212</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="108" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G11" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F12" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I12" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>221</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F13" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="I13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>225</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F14" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>235</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F16" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="H16" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I16" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="I16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="148.5" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E17" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="G17" s="6" t="s">
+      <c r="H17" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="135" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F18" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="H18" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="H18" s="6" t="s">
+      <c r="I18" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H19" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="I19" s="6" t="s">
         <v>251</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F20" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="I20" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="121.5" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E21" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="H21" s="6" t="s">
+      <c r="J21" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="M21" s="6" t="s">
         <v>259</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G22" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="K22" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="H23" s="6" t="s">
         <v>294</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="189" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="H24" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="135" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="G25" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="G25" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="H25" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="G26" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="I26" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="175.5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="F27" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="G27" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="K27" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="81" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="I28" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="E29" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="F29" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="F29" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="H29" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="E30" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="H30" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="H31" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="216" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="E32" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="E33" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>333</v>
-      </c>
       <c r="H33" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="216" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="81" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="F35" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="81" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="D36" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="H36" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H37" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="G37" s="6" t="s">
+      <c r="I37" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="K37" s="6" t="s">
         <v>348</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="H38" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="F38" s="6" t="s">
+      <c r="I38" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="K38" s="6" t="s">
         <v>353</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F39" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="G39" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="G39" s="6" t="s">
+      <c r="I39" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>358</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="E40" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="F40" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="H41" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="162" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F42" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="F42" s="6" t="s">
+      <c r="I42" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -6027,190 +6098,190 @@
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>269</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:13" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>272</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="G13" s="6" t="s">
         <v>276</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="6" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="I14" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="6" customFormat="1" ht="135" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>284</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="G18" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="6" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>287</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
